--- a/biology/Zoologie/Afrosternophorus_ceylonicus/Afrosternophorus_ceylonicus.xlsx
+++ b/biology/Zoologie/Afrosternophorus_ceylonicus/Afrosternophorus_ceylonicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Afrosternophorus ceylonicus est une espèce de pseudoscorpions de la famille des Sternophoridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Sri Lanka et en Inde[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Sri Lanka et en Inde.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 1,7 à 2,1 mm et les femelles de 2,1 à 2,9 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 1,7 à 2,1 mm et les femelles de 2,1 à 2,9 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Sternophorus ceylonicus par Beier en 1973. Elle est placée dans le genre Afrosternophorus par Harvey en 1985[2] qui dans le même temps place Sternophorus indicus, Sternophorus transiens, Sternophorus montanus, Sternophorus femoratus, Sternophorus intermedius et Sternophorus amrithiensis en synonymie.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Sternophorus ceylonicus par Beier en 1973. Elle est placée dans le genre Afrosternophorus par Harvey en 1985 qui dans le même temps place Sternophorus indicus, Sternophorus transiens, Sternophorus montanus, Sternophorus femoratus, Sternophorus intermedius et Sternophorus amrithiensis en synonymie.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Ceylan.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Beier, 1973 : Pseudoscorpionidea von Ceylon. Entomologica Scandinavica, vol. 4, Supplement, p. 39-55.</t>
         </is>
